--- a/Ariful islam 14.xlsx
+++ b/Ariful islam 14.xlsx
@@ -8,20 +8,142 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Networking-Lab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{345EB0AC-D2A9-46C5-AAC7-CE3C20113ACF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5844AF8-4153-4C0D-AA56-C2AE14FE98BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18315" windowHeight="5865" xr2:uid="{B5CB62C7-9A63-4CBA-AE35-C79956C8E22E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18315" windowHeight="5865" activeTab="4" xr2:uid="{B5CB62C7-9A63-4CBA-AE35-C79956C8E22E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Pivit Table" sheetId="4" r:id="rId3"/>
+    <sheet name="DASHBOARD" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet1!$G$2:$G$8</definedName>
+    <definedName name="Slicer_Region">#N/A</definedName>
+    <definedName name="Slicer_Units_Sold">#N/A</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="20" r:id="rId6"/>
+  </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId7"/>
+        <x14:slicerCache r:id="rId8"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+  <si>
+    <t>Salseperson</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Units Sold</t>
+  </si>
+  <si>
+    <t>Unit Price</t>
+  </si>
+  <si>
+    <t>Total Sales</t>
+  </si>
+  <si>
+    <t>Mounth</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Clara</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Eva</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
+    <t>North</t>
+  </si>
+  <si>
+    <t>East</t>
+  </si>
+  <si>
+    <t>South</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of Units Sold</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>VLOOKUP</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -55,8 +177,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -72,6 +199,1383 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Ariful islam 14.xlsx]Pivit Table!PivotTable6</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10980314960629919"/>
+          <c:y val="0.25865522018081066"/>
+          <c:w val="0.77378937007874016"/>
+          <c:h val="0.53774387576552929"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pivit Table'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pivit Table'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Grand Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pivit Table'!$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3F5F-4945-AC4E-6650B4103916}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2111338687"/>
+        <c:axId val="89057471"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2111338687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="89057471"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="89057471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2111338687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>423862</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ABF2AC3-40AC-4772-A8A1-1E0E182F0837}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Region">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D43BF6F8-79E9-4B77-AE39-604CBEAE94E8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Region"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7848600" y="1657350"/>
+              <a:ext cx="1828800" cy="2524125"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="4" name="Units Sold">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAAC8ECC-4740-4732-8917-F791DA3D636C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Units Sold"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9686925" y="1857375"/>
+              <a:ext cx="1828800" cy="2524125"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>317389</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>88631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79EB7A15-3352-4B25-BCEE-327D71733FAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="571500"/>
+          <a:ext cx="4584589" cy="2755631"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Networking-Lab" refreshedDate="45671.849094444442" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="6" xr:uid="{5DA3C68E-8B30-41AC-8A60-070064C7EE69}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A2:G8" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="Salseperson" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Region" numFmtId="0">
+      <sharedItems count="4">
+        <s v="North"/>
+        <s v="East"/>
+        <s v="South"/>
+        <s v="West"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Product" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Units Sold" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="90" maxValue="150" count="6">
+        <n v="150"/>
+        <n v="100"/>
+        <n v="120"/>
+        <n v="90"/>
+        <n v="110"/>
+        <n v="130"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Unit Price" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="15" maxValue="25"/>
+    </cacheField>
+    <cacheField name="Total Sales" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Mounth" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition pivotCacheId="486824270"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="6">
+  <r>
+    <s v="Alice"/>
+    <x v="0"/>
+    <s v="A"/>
+    <x v="0"/>
+    <n v="20"/>
+    <s v="$3,000.00"/>
+    <s v="January"/>
+  </r>
+  <r>
+    <s v="Bob"/>
+    <x v="1"/>
+    <s v="B"/>
+    <x v="1"/>
+    <n v="15"/>
+    <s v="$1,500.00"/>
+    <s v="February"/>
+  </r>
+  <r>
+    <s v="Clara"/>
+    <x v="2"/>
+    <s v="A"/>
+    <x v="2"/>
+    <n v="20"/>
+    <s v="$2,400.00"/>
+    <s v="March"/>
+  </r>
+  <r>
+    <s v="David"/>
+    <x v="3"/>
+    <s v="C"/>
+    <x v="3"/>
+    <n v="25"/>
+    <s v="$2,250.00"/>
+    <s v="April"/>
+  </r>
+  <r>
+    <s v="Eva"/>
+    <x v="0"/>
+    <s v="C"/>
+    <x v="4"/>
+    <n v="25"/>
+    <s v="$2,750.00"/>
+    <s v="May"/>
+  </r>
+  <r>
+    <s v="Frank"/>
+    <x v="1"/>
+    <s v="B"/>
+    <x v="5"/>
+    <n v="15"/>
+    <s v="$1,950.00"/>
+    <s v="June"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{12E8125A-657F-4D27-87A4-FC5DC1B53914}" name="PivotTable6" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:B4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item h="1" x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="7">
+        <item h="1" x="3"/>
+        <item h="1" x="1"/>
+        <item x="4"/>
+        <item h="1" x="2"/>
+        <item h="1" x="5"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="1">
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Units Sold" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Region" xr10:uid="{F56B92FF-5E4A-437B-96C5-525F0F6D0EE9}" sourceName="Region">
+  <pivotTables>
+    <pivotTable tabId="4" name="PivotTable6"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="486824270">
+      <items count="4">
+        <i x="0"/>
+        <i x="1" s="1" nd="1"/>
+        <i x="2" s="1" nd="1"/>
+        <i x="3" s="1" nd="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Units_Sold" xr10:uid="{C80AFF51-9F2A-4EE4-B5EA-4031B6B00C06}" sourceName="Units Sold">
+  <pivotTables>
+    <pivotTable tabId="4" name="PivotTable6"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="486824270">
+      <items count="6">
+        <i x="3"/>
+        <i x="1"/>
+        <i x="2"/>
+        <i x="5"/>
+        <i x="4" s="1" nd="1"/>
+        <i x="0" nd="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Region" xr10:uid="{EF333981-4D4E-4285-85D3-17BC64ECC078}" cache="Slicer_Region" caption="Region" rowHeight="241300"/>
+  <slicer name="Units Sold" xr10:uid="{9E265AED-BB03-4823-9F08-3770108B840A}" cache="Slicer_Units_Sold" caption="Units Sold" rowHeight="241300"/>
+</slicers>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -370,13 +1874,345 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A354F9-7C52-41ED-B534-4D565FC9075B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A1B836-02A2-42E5-9D6C-36D3DE7419FF}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62660B8E-78D1-4210-8748-1779C05666AC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E62AA60D-C21A-424F-A602-6D394458DE9E}">
+  <dimension ref="A3:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId3"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DA3BBB-701F-4A03-AC49-CD4F491B5C04}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9A354F9-7C52-41ED-B534-4D565FC9075B}">
+  <dimension ref="A2:J9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>150</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3" t="str">
+        <f>DOLLAR(D3*E3)</f>
+        <v>$3,000.00</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="str">
+        <f>IF(D3:D8&gt;120, "High","Low")</f>
+        <v>High</v>
+      </c>
+      <c r="J3">
+        <f>VLOOKUP("B",C3:G8,3, FALSE)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4" t="str">
+        <f>DOLLAR(D4*E4)</f>
+        <v>$1,500.00</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" ref="I4:I8" si="0">IF(D4:D9&gt;120, "High","Low")</f>
+        <v>Low</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J8" si="1">VLOOKUP("B",C4:G9,3, FALSE)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>120</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5" t="str">
+        <f>DOLLAR(D5*E5)</f>
+        <v>$2,400.00</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>Low</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>90</v>
+      </c>
+      <c r="E6">
+        <v>25</v>
+      </c>
+      <c r="F6" t="str">
+        <f>DOLLAR(D6*E6)</f>
+        <v>$2,250.00</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>Low</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>110</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="F7" t="str">
+        <f>DOLLAR(D7*E7)</f>
+        <v>$2,750.00</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>Low</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>130</v>
+      </c>
+      <c r="E8">
+        <v>15</v>
+      </c>
+      <c r="F8" t="str">
+        <f>DOLLAR(D8*E8)</f>
+        <v>$1,950.00</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>High</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <f>SUM(D3:D8)</f>
+        <v>700</v>
+      </c>
+      <c r="F9">
+        <f>MAX(F3:F8)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="G2:G8" xr:uid="{E2A3F3B7-6E1E-40D2-8673-760B87FB4AAD}"/>
+  <conditionalFormatting sqref="D2:D8">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>